--- a/Mnemonic List.xlsx
+++ b/Mnemonic List.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$57</definedName>
   </definedNames>
   <calcPr calcId="171027" iterate="1" iterateCount="1" calcOnSave="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="173">
   <si>
     <t>mnemonic</t>
   </si>
@@ -375,13 +375,184 @@
   </si>
   <si>
     <t>SUM-TOTAL-EFFECTIVE-POROSITY_FOR_GROUP_</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>('CMRP_3MS_MW[0]')</t>
+  </si>
+  <si>
+    <t>('KSDR')</t>
+  </si>
+  <si>
+    <t>('KSDR_HR')</t>
+  </si>
+  <si>
+    <t>('KSDR_SH1')</t>
+  </si>
+  <si>
+    <t>('KSDR_SH4')</t>
+  </si>
+  <si>
+    <t>('KTIM')</t>
+  </si>
+  <si>
+    <t>('KTIM_HR')</t>
+  </si>
+  <si>
+    <t>('KTIM_SH1')</t>
+  </si>
+  <si>
+    <t>('KTIM_SH4')</t>
+  </si>
+  <si>
+    <t>('MPRM')</t>
+  </si>
+  <si>
+    <t>('PMRI')</t>
+  </si>
+  <si>
+    <t>('K')</t>
+  </si>
+  <si>
+    <t>('KECHO_HR')</t>
+  </si>
+  <si>
+    <t>('KFT')</t>
+  </si>
+  <si>
+    <t>('K-FT')</t>
+  </si>
+  <si>
+    <t>('KH')</t>
+  </si>
+  <si>
+    <t>('KH_HYD')</t>
+  </si>
+  <si>
+    <t>('KH_WTR')</t>
+  </si>
+  <si>
+    <t>('KHYD')</t>
+  </si>
+  <si>
+    <t>('KHYD_RST')</t>
+  </si>
+  <si>
+    <t>('KINT')</t>
+  </si>
+  <si>
+    <t>('KINT_GEO_QEPP')</t>
+  </si>
+  <si>
+    <t>('KOIL_GEO_QEPP')</t>
+  </si>
+  <si>
+    <t>('KV')</t>
+  </si>
+  <si>
+    <t>('KV_HYD')</t>
+  </si>
+  <si>
+    <t>('KV_WTR')</t>
+  </si>
+  <si>
+    <t>('KWTR')</t>
+  </si>
+  <si>
+    <t>('KWTR_CALC')</t>
+  </si>
+  <si>
+    <t>('KWTR_GEO_QEPP')</t>
+  </si>
+  <si>
+    <t>('MPERM')</t>
+  </si>
+  <si>
+    <t>('MPERMC')</t>
+  </si>
+  <si>
+    <t>('MPERME')</t>
+  </si>
+  <si>
+    <t>('MPERMH')</t>
+  </si>
+  <si>
+    <t>('MPERMT1')</t>
+  </si>
+  <si>
+    <t>('MPERMW')</t>
+  </si>
+  <si>
+    <t>('NUPERM')</t>
+  </si>
+  <si>
+    <t>('NUPERM:1')</t>
+  </si>
+  <si>
+    <t>('NUPERM:2')</t>
+  </si>
+  <si>
+    <t>('PERM')</t>
+  </si>
+  <si>
+    <t>('PMRIH')</t>
+  </si>
+  <si>
+    <t>('PMRIW')</t>
+  </si>
+  <si>
+    <t>('T2KBENS')</t>
+  </si>
+  <si>
+    <t>('T2KCOAT')</t>
+  </si>
+  <si>
+    <t>('T2KLOGM')</t>
+  </si>
+  <si>
+    <t>('TCMR')</t>
+  </si>
+  <si>
+    <t>('TCMR_HR')</t>
+  </si>
+  <si>
+    <t>('TCMR_HR_SIG')</t>
+  </si>
+  <si>
+    <t>('TCMR_MW')</t>
+  </si>
+  <si>
+    <t>('TCMR_MW[0]')</t>
+  </si>
+  <si>
+    <t>('TCMR_MW_SIG')</t>
+  </si>
+  <si>
+    <t>('TCMR_SIG')</t>
+  </si>
+  <si>
+    <t>('MPHI')</t>
+  </si>
+  <si>
+    <t>('MPHIT1')</t>
+  </si>
+  <si>
+    <t>('MPHITA')</t>
+  </si>
+  <si>
+    <t>('CMRP_3MS')</t>
+  </si>
+  <si>
+    <t>('CMRP_3MS_MW')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +566,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -429,13 +606,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -751,631 +931,803 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
+      <c r="B6" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
+      <c r="B7" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
+      <c r="B8" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
+      <c r="B9" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
+      <c r="B11" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
+      <c r="B12" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
+      <c r="B14" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
+      <c r="B15" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
+      <c r="B16" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
+      <c r="B19" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
+      <c r="B20" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
+      <c r="B21" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
+      <c r="B22" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
+      <c r="B23" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
+      <c r="B24" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
+      <c r="B27" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
+      <c r="B28" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
+      <c r="B29" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
+      <c r="B30" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
+      <c r="B31" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
+      <c r="B33" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
+      <c r="B34" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
+      <c r="B35" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
+      <c r="B36" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
+      <c r="B37" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
+      <c r="B38" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
+      <c r="B39" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
+      <c r="B40" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
+      <c r="B41" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
+      <c r="B42" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
+      <c r="B43" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
+      <c r="B44" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
+      <c r="B45" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>10</v>
+      <c r="B46" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>10</v>
+      <c r="B47" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C57"/>
+  <autoFilter ref="A1:D57"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>